--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Migrating Task\Training material_migrated\DemoS_007\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\DemoModels_SelfLearning\DemoS_007_SL\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB06FB35-FE53-4BB6-906A-FE6DA5315333}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1491A71-6B58-4E93-BD2D-B29D3116ED70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" activeTab="2"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_ELC" sheetId="4" r:id="rId1"/>
@@ -24,12 +24,17 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,14 +42,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="N3" authorId="0" shapeId="0">
+    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -158,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="1" shapeId="0">
+    <comment ref="S3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -184,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="2" shapeId="0">
+    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -257,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="2" shapeId="0">
+    <comment ref="U3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -310,7 +315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="2" shapeId="0">
+    <comment ref="V3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -343,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T9" authorId="2" shapeId="0">
+    <comment ref="T9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -436,7 +441,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U9" authorId="1" shapeId="0">
+    <comment ref="U9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -461,7 +466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V9" authorId="2" shapeId="0">
+    <comment ref="V9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -524,7 +529,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N10" authorId="2" shapeId="0">
+    <comment ref="N10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -772,7 +777,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="140">
   <si>
     <t>~FI_T</t>
   </si>
@@ -789,9 +794,6 @@
     <t>Comm-OUT</t>
   </si>
   <si>
-    <t>FIXOM</t>
-  </si>
-  <si>
     <t>CommName</t>
   </si>
   <si>
@@ -879,27 +881,12 @@
     <t>Output Commodity</t>
   </si>
   <si>
-    <t>AFA</t>
-  </si>
-  <si>
-    <t>VAROM</t>
-  </si>
-  <si>
     <t>Efficiency</t>
   </si>
   <si>
-    <t>Capacity to Activity Factor</t>
-  </si>
-  <si>
     <t>INVCOST</t>
   </si>
   <si>
-    <t>Fixed O&amp;M Cost</t>
-  </si>
-  <si>
-    <t>Variable O&amp;M Cost</t>
-  </si>
-  <si>
     <t>*Declare and characterize the new technologies by sector. Sheet names should indicate the sector as &lt;SectorName&gt;_&lt;Anything&gt;</t>
   </si>
   <si>
@@ -987,36 +974,15 @@
     <t>ELCCO2</t>
   </si>
   <si>
-    <t>kt</t>
-  </si>
-  <si>
     <t>LIFE</t>
   </si>
   <si>
-    <t>ENV_ACT</t>
-  </si>
-  <si>
-    <t>Peak</t>
-  </si>
-  <si>
     <t>*Technology Name</t>
   </si>
   <si>
-    <t>Utilisation Factor</t>
-  </si>
-  <si>
-    <t>Invesctment Cost</t>
-  </si>
-  <si>
     <t>Remaining Lifetime</t>
   </si>
   <si>
-    <t>Activity Emission Coefficient</t>
-  </si>
-  <si>
-    <t>% contribution to PEAK</t>
-  </si>
-  <si>
     <t>*Process Set Membership</t>
   </si>
   <si>
@@ -1029,21 +995,9 @@
     <t>*Units</t>
   </si>
   <si>
-    <t>M€/GW</t>
-  </si>
-  <si>
-    <t>M€/PJa</t>
-  </si>
-  <si>
-    <t>M€/PJ</t>
-  </si>
-  <si>
     <t>Years</t>
   </si>
   <si>
-    <t>(Act Unit/Cap Unit)</t>
-  </si>
-  <si>
     <t>ELE</t>
   </si>
   <si>
@@ -1140,42 +1094,9 @@
     <t>*</t>
   </si>
   <si>
-    <t>Year</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>CAP2ACT</t>
-  </si>
-  <si>
-    <t>Remaining</t>
-  </si>
-  <si>
-    <t>Lifetime</t>
-  </si>
-  <si>
-    <t>ACTFLO~DEMO</t>
-  </si>
-  <si>
-    <t>Activity to Flo</t>
-  </si>
-  <si>
-    <t>Investment Cost</t>
-  </si>
-  <si>
-    <t>'000 km</t>
-  </si>
-  <si>
-    <t>Passenger/Car</t>
-  </si>
-  <si>
-    <t>M€/000_Units</t>
-  </si>
-  <si>
-    <t>M€/000_Units/a</t>
-  </si>
-  <si>
     <t>TCARNDSL</t>
   </si>
   <si>
@@ -1185,9 +1106,6 @@
     <t>DEMO</t>
   </si>
   <si>
-    <t>TRADSL</t>
-  </si>
-  <si>
     <t>DTCAR</t>
   </si>
   <si>
@@ -1197,54 +1115,97 @@
     <t>Demand Technologies Transport Sector -   Cars - LPG</t>
   </si>
   <si>
-    <t>TRALPG</t>
-  </si>
-  <si>
     <t>TCARNGSL</t>
   </si>
   <si>
     <t>Demand Technologies Transport Sector -   Cars - Motor spirit</t>
   </si>
   <si>
-    <t>TRAGSL</t>
-  </si>
-  <si>
     <t>TCARNGAS</t>
   </si>
   <si>
     <t>Demand Technologies Transport Sector -   Cars - Natural Gas</t>
   </si>
   <si>
-    <t>TRAGAS</t>
-  </si>
-  <si>
     <t>TCARNELC</t>
   </si>
   <si>
     <t>Demand Technologies Transport Sector -   Cars - Electricity</t>
   </si>
   <si>
-    <t>TRAELC</t>
-  </si>
-  <si>
     <t>BPkm</t>
   </si>
   <si>
-    <t>BV*km/PJ</t>
-  </si>
-  <si>
-    <t>bvkm/mvkm</t>
+    <t>process</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>commodity_group</t>
+  </si>
+  <si>
+    <t>lim_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>time_slice</t>
+  </si>
+  <si>
+    <t>ACT_COST</t>
+  </si>
+  <si>
+    <t>MEuro05</t>
+  </si>
+  <si>
+    <t>ACT_EFF</t>
+  </si>
+  <si>
+    <t>ACT</t>
+  </si>
+  <si>
+    <t>ANNUAL</t>
+  </si>
+  <si>
+    <t>FLO_EMIS</t>
+  </si>
+  <si>
+    <t>NCAP_AFA</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>NCAP_COST</t>
+  </si>
+  <si>
+    <t>NCAP_FOM</t>
+  </si>
+  <si>
+    <t>NCAP_PKCNT</t>
+  </si>
+  <si>
+    <t>NCAP_START</t>
+  </si>
+  <si>
+    <t>NCAP_TLIFE</t>
+  </si>
+  <si>
+    <t>PRC_CAPACT</t>
+  </si>
+  <si>
+    <t>PRC_ACTFLO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="186" formatCode="0.000"/>
-    <numFmt numFmtId="187" formatCode="0.0"/>
-    <numFmt numFmtId="208" formatCode="\Te\x\t"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="\Te\x\t"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -1370,7 +1331,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1405,14 +1366,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1451,21 +1406,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -1484,18 +1430,12 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1503,35 +1443,11 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1542,7 +1458,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1553,33 +1468,11 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
@@ -1620,69 +1513,59 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="7" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="208" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="208" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="208" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="208" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="208" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="208" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="208" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="208" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="208" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="208" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="208" fontId="2" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="208" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="208" fontId="4" fillId="2" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="208" fontId="4" fillId="2" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="208" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
     <cellStyle name="Accent2" xfId="2" builtinId="33"/>
-    <cellStyle name="Comma 2" xfId="3"/>
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Good" xfId="4" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="5"/>
-    <cellStyle name="Normal 2" xfId="6"/>
-    <cellStyle name="Normal 4" xfId="7"/>
-    <cellStyle name="Normal 4 2" xfId="8"/>
-    <cellStyle name="Normal 8" xfId="9"/>
-    <cellStyle name="Normal 9 2" xfId="10"/>
-    <cellStyle name="Normale_B2020" xfId="11"/>
-    <cellStyle name="Percent 2" xfId="12"/>
-    <cellStyle name="Percent 2 2" xfId="13"/>
-    <cellStyle name="Percent 3" xfId="14"/>
-    <cellStyle name="Percent 3 2" xfId="15"/>
-    <cellStyle name="Percent 4" xfId="16"/>
-    <cellStyle name="Percent 4 2" xfId="17"/>
-    <cellStyle name="Percent 5" xfId="18"/>
-    <cellStyle name="Percent 5 2" xfId="19"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="20"/>
+    <cellStyle name="Normal 10" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 4 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 8" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 9 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normale_B2020" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Percent 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Percent 2 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Percent 3" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Percent 3 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Percent 4" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Percent 4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Percent 5" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Percent 5 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1703,13 +1586,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>14817</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1928,13 +1811,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2036,13 +1919,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>440055</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>432435</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>146685</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2241,13 +2124,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>13335</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>392432</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>139065</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2441,7 +2324,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -2576,9 +2459,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2616,9 +2499,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2651,26 +2534,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2703,26 +2569,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2895,766 +2744,1028 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:Z70"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3" style="24" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="24" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="24" customWidth="1"/>
-    <col min="10" max="10" width="9" style="24" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="24" customWidth="1"/>
-    <col min="12" max="12" width="7" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="24" customWidth="1"/>
-    <col min="14" max="14" width="15" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="2" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="52.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.28515625" customWidth="1"/>
-    <col min="22" max="22" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3" style="14" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.265625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="15.265625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="11.86328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.73046875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.53125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.73046875" style="14" customWidth="1"/>
+    <col min="10" max="10" width="9" style="14" customWidth="1"/>
+    <col min="11" max="11" width="8.265625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="7" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.73046875" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.59765625" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="52.265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.265625" customWidth="1"/>
+    <col min="22" max="22" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.265625" customWidth="1"/>
     <col min="25" max="25" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="22.5" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="32"/>
+    </row>
+    <row r="3" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="53"/>
-    </row>
-    <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+    <row r="4" spans="1:26" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="B4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="23" t="s">
+      <c r="E4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="F4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="G4" s="9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="I4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="Q4" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="48"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+    </row>
+    <row r="5" spans="1:26" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="Q5" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="S5" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="T5" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="U5" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="V5" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="W5" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="X5" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y5" s="50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="22.15" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="15"/>
+      <c r="B6" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="C6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="D6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="E6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="F6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="Q4" s="78" t="s">
-        <v>7</v>
-      </c>
-      <c r="R4" s="78"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="79"/>
-      <c r="U4" s="79"/>
-      <c r="V4" s="79"/>
-      <c r="W4" s="79"/>
-      <c r="X4" s="79"/>
-      <c r="Y4" s="79"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="Q5" s="80" t="s">
-        <v>8</v>
-      </c>
-      <c r="R5" s="81" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="S5" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="T5" s="80" t="s">
+      <c r="R6" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="S6" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="T6" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="U6" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="V5" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="W5" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="X5" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y5" s="80" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="V6" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="W6" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="X6" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y6" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A7" s="15"/>
+      <c r="B7" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="82" t="s">
+      <c r="D7" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="R6" s="82" t="s">
+      <c r="E7" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="S6" s="82" t="s">
-        <v>24</v>
-      </c>
-      <c r="T6" s="82" t="s">
-        <v>25</v>
-      </c>
-      <c r="U6" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="V6" s="82" t="s">
-        <v>64</v>
-      </c>
-      <c r="W6" s="82" t="s">
-        <v>65</v>
-      </c>
-      <c r="X6" s="82" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y6" s="82" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="F7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+    </row>
+    <row r="9" spans="1:26" ht="13.15" x14ac:dyDescent="0.4">
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E10" s="5" t="s">
+    <row r="10" spans="1:26" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="Q10" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="R10" s="48"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+    </row>
+    <row r="11" spans="1:26" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="Q11" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="R11" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="S11" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="T11" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="U11" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="V11" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="W11" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="X11" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y11" s="50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q12" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="R12" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="S12" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="T12" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="U12" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="V12" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="W12" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="X12" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y12" s="52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Q13" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="T13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="U13" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="V13" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="W13" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="T14" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="U14" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="V14" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="T15" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="U15" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="V15" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+    </row>
+    <row r="19" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="I23" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="4"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="R10" s="78"/>
-      <c r="S10" s="79"/>
-      <c r="T10" s="79"/>
-      <c r="U10" s="79"/>
-      <c r="V10" s="79"/>
-      <c r="W10" s="79"/>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="79"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B11" s="14" t="s">
+      <c r="Q23" s="14"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B24" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J24" s="14">
+        <v>2005</v>
+      </c>
+      <c r="K24" s="14">
+        <v>2006</v>
+      </c>
+      <c r="L24" s="14">
+        <v>2010</v>
+      </c>
+      <c r="M24" s="14">
+        <v>2015</v>
+      </c>
+      <c r="N24" s="14">
+        <v>2020</v>
+      </c>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B25" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J25" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="Q25" s="14"/>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B26" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="J26" s="14">
+        <v>0.42</v>
+      </c>
+      <c r="Q26" s="14"/>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B27" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="14" t="str">
+        <f>E25</f>
+        <v>ELCCOA</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="J27" s="14">
+        <v>99.8</v>
+      </c>
+      <c r="Q27" s="14"/>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B28" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J28" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="Q28" s="14"/>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B29" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J29" s="14">
+        <v>1650</v>
+      </c>
+      <c r="Q29" s="14"/>
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B30" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J30" s="14">
+        <v>35</v>
+      </c>
+      <c r="Q30" s="14"/>
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B31" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="J31" s="14">
         <v>1</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" s="16" t="s">
+      <c r="Q31" s="14"/>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B32" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="J32" s="14">
+        <v>2006</v>
+      </c>
+      <c r="Q32" s="14"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B33" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="J33" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q33" s="14"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B34" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="J34" s="14">
+        <v>31.54</v>
+      </c>
+      <c r="Q34" s="14"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B35" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J35" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="Q35" s="14"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B36" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K36" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="L36" s="14">
+        <v>0.51</v>
+      </c>
+      <c r="M36" s="14">
+        <v>0.52</v>
+      </c>
+      <c r="N36" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q36" s="14"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B37" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" s="14" t="str">
+        <f>E35</f>
+        <v>ELCGAS</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K37" s="14">
+        <v>56.1</v>
+      </c>
+      <c r="Q37" s="14"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B38" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J38" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="Q38" s="14"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B39" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J39" s="14">
+        <v>750</v>
+      </c>
+      <c r="Q39" s="14"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B40" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J40" s="14">
+        <v>30</v>
+      </c>
+      <c r="Q40" s="14"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B41" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="J41" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="14"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B42" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="J42" s="14">
+        <v>2006</v>
+      </c>
+      <c r="Q42" s="14"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B43" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="J43" s="14">
+        <v>30</v>
+      </c>
+      <c r="Q43" s="14"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B44" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="J44" s="14">
+        <v>31.54</v>
+      </c>
+      <c r="Q44" s="14"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B45" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J45" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="Q45" s="14"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B46" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="J46" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="Q46" s="14"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B47" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" s="14" t="str">
+        <f>E45</f>
+        <v>ELCOIL</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="J47" s="14">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="Q47" s="14"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B48" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J48" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="Q48" s="14"/>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B49" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J49" s="14">
+        <v>250</v>
+      </c>
+      <c r="Q49" s="14"/>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B50" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J50" s="14">
         <v>15</v>
       </c>
-      <c r="G11" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="O11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="80" t="s">
-        <v>16</v>
-      </c>
-      <c r="R11" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="S11" s="80" t="s">
+      <c r="Q50" s="14"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B51" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="J51" s="14">
         <v>1</v>
       </c>
-      <c r="T11" s="80" t="s">
-        <v>2</v>
-      </c>
-      <c r="U11" s="80" t="s">
-        <v>19</v>
-      </c>
-      <c r="V11" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="W11" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="X11" s="80" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y11" s="80" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12" s="18" t="s">
+      <c r="Q51" s="14"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B52" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="J52" s="14">
+        <v>2005</v>
+      </c>
+      <c r="Q52" s="14"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B53" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="J53" s="14">
         <v>40</v>
       </c>
-      <c r="K12" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="M12" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="N12" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="O12" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="82" t="s">
-        <v>81</v>
-      </c>
-      <c r="R12" s="82" t="s">
-        <v>63</v>
-      </c>
-      <c r="S12" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="T12" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="U12" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="V12" s="82" t="s">
-        <v>31</v>
-      </c>
-      <c r="W12" s="82" t="s">
-        <v>82</v>
-      </c>
-      <c r="X12" s="82" t="s">
+      <c r="Q53" s="14"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B54" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="Y12" s="82" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="L13" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="M13" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="N13" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="O13" s="20"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="R13" s="83"/>
-      <c r="S13" s="83" t="s">
-        <v>98</v>
-      </c>
-      <c r="T13" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="U13" s="83" t="s">
-        <v>52</v>
-      </c>
-      <c r="V13" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="W13" s="84" t="s">
-        <v>92</v>
-      </c>
-      <c r="X13" s="83"/>
-      <c r="Y13" s="83"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B14" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="29">
-        <v>2006</v>
-      </c>
-      <c r="G14" s="30">
-        <v>0.42</v>
-      </c>
-      <c r="H14" s="30">
-        <v>0.85</v>
-      </c>
-      <c r="I14" s="24">
-        <v>1650</v>
-      </c>
-      <c r="J14" s="30">
-        <v>35</v>
-      </c>
-      <c r="K14" s="30">
-        <v>0.4</v>
-      </c>
-      <c r="L14" s="24">
-        <v>40</v>
-      </c>
-      <c r="N14" s="24">
-        <v>31.536000000000001</v>
-      </c>
-      <c r="O14" s="30">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="83" t="s">
-        <v>99</v>
-      </c>
-      <c r="T14" s="83" t="s">
-        <v>94</v>
-      </c>
-      <c r="U14" s="83" t="s">
-        <v>52</v>
-      </c>
-      <c r="V14" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="W14" s="83"/>
-      <c r="X14" s="83"/>
-      <c r="Y14" s="83" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="D15" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="M15" s="69">
-        <f>99.8/G14</f>
-        <v>237.61904761904762</v>
-      </c>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="83"/>
-      <c r="S15" s="83" t="s">
-        <v>100</v>
-      </c>
-      <c r="T15" s="83" t="s">
-        <v>95</v>
-      </c>
-      <c r="U15" s="83" t="s">
-        <v>52</v>
-      </c>
-      <c r="V15" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="W15" s="83"/>
-      <c r="X15" s="83"/>
-      <c r="Y15" s="83"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B16" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="24">
-        <v>2005</v>
-      </c>
-      <c r="G16" s="30">
-        <v>0.3</v>
-      </c>
-      <c r="H16" s="30">
-        <v>0.85</v>
-      </c>
-      <c r="I16" s="26">
-        <v>250</v>
-      </c>
-      <c r="J16" s="31">
-        <v>15</v>
-      </c>
-      <c r="K16" s="31">
-        <v>0.2</v>
-      </c>
-      <c r="L16" s="24">
-        <v>40</v>
-      </c>
-      <c r="M16" s="29"/>
-      <c r="N16" s="24">
-        <v>31.536000000000001</v>
-      </c>
-      <c r="O16" s="30">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-    </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="D17" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="M17" s="69">
-        <f>56.1/G16</f>
-        <v>187</v>
-      </c>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-    </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B18" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="24">
-        <v>2006</v>
-      </c>
-      <c r="H18" s="30">
-        <v>0.85</v>
-      </c>
-      <c r="I18" s="24">
-        <v>750</v>
-      </c>
-      <c r="J18" s="30">
-        <v>30</v>
-      </c>
-      <c r="K18" s="30">
-        <v>0.35</v>
-      </c>
-      <c r="L18" s="24">
-        <v>30</v>
-      </c>
-      <c r="M18" s="29"/>
-      <c r="N18" s="24">
-        <v>31.536000000000001</v>
-      </c>
-      <c r="O18" s="30">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-    </row>
-    <row r="19" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D19" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="24">
-        <v>2006</v>
-      </c>
-      <c r="G19" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="H19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="M19" s="69">
-        <f>76.4/G19</f>
-        <v>152.80000000000001</v>
-      </c>
-      <c r="O19" s="30"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-    </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="D20" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="24">
-        <v>2010</v>
-      </c>
-      <c r="G20" s="30">
-        <v>0.51</v>
-      </c>
-      <c r="H20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="M20" s="69">
-        <f>76.4/G20</f>
-        <v>149.80392156862746</v>
-      </c>
-      <c r="O20" s="30"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-    </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="D21" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="24">
-        <v>2015</v>
-      </c>
-      <c r="G21" s="30">
-        <v>0.52</v>
-      </c>
-      <c r="H21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="M21" s="69">
-        <f>76.4/G21</f>
-        <v>146.92307692307693</v>
-      </c>
-      <c r="O21" s="30"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-    </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="D22" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="24">
-        <v>2020</v>
-      </c>
-      <c r="G22" s="30">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="M22" s="69">
-        <f>76.4/G22</f>
-        <v>138.90909090909091</v>
-      </c>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-    </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-    </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
+      <c r="C54" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="J54" s="14">
+        <v>31.54</v>
+      </c>
+      <c r="Q54" s="14"/>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="Q55" s="14"/>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="Q56" s="14"/>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="Q57" s="14"/>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="Q58" s="14"/>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="Q59" s="14"/>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="Q60" s="14"/>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="Q61" s="14"/>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="Q62" s="14"/>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="Q63" s="14"/>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="Q64" s="14"/>
+    </row>
+    <row r="65" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q65" s="14"/>
+    </row>
+    <row r="66" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q66" s="14"/>
+    </row>
+    <row r="67" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q67" s="14"/>
+    </row>
+    <row r="68" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q68" s="14"/>
+    </row>
+    <row r="69" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q69" s="14"/>
+    </row>
+    <row r="70" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q70" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -3666,528 +3777,505 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.06640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.59765625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="55.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="55.1328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.1328125" customWidth="1"/>
     <col min="21" max="21" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="22.5" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B3" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="37" t="s">
+    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="B4" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4" s="78" t="s">
+      <c r="H4" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="48"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+    </row>
+    <row r="5" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="M5" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="78"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="79"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="79"/>
-      <c r="U4" s="79"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="M5" s="80" t="s">
+      <c r="N5" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="81" t="s">
+      <c r="Q5" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="T5" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="5"/>
+      <c r="I6" s="25"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="P5" s="80" t="s">
+      <c r="N6" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="R5" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="S5" s="80" t="s">
+      <c r="R6" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="S6" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="T6" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="U6" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="I7" s="25"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+    </row>
+    <row r="10" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="M10" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="48"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+    </row>
+    <row r="11" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="M11" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="P11" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="S11" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="T11" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="U11" s="50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K12" s="2"/>
+      <c r="M12" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="N12" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="O12" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="R12" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="S12" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="T12" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="U12" s="52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="I13" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="M13" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q13" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="R13" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14">
+        <v>2005</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15">
+        <v>1.2</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" t="str">
+        <f>E15</f>
+        <v>RSDGAS</v>
+      </c>
+      <c r="F16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16">
+        <v>46.75</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" t="s">
+        <v>132</v>
+      </c>
+      <c r="J17">
+        <v>0.95</v>
+      </c>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18" t="s">
+        <v>126</v>
+      </c>
+      <c r="J18">
         <v>12</v>
       </c>
-      <c r="T5" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="U5" s="80" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="82" t="s">
-        <v>62</v>
-      </c>
-      <c r="N6" s="82" t="s">
-        <v>63</v>
-      </c>
-      <c r="O6" s="82" t="s">
-        <v>24</v>
-      </c>
-      <c r="P6" s="82" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q6" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="R6" s="82" t="s">
-        <v>64</v>
-      </c>
-      <c r="S6" s="82" t="s">
-        <v>65</v>
-      </c>
-      <c r="T6" s="82" t="s">
-        <v>26</v>
-      </c>
-      <c r="U6" s="82" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="40"/>
-      <c r="M10" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="N10" s="78"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="85"/>
-      <c r="R10" s="85"/>
-      <c r="S10" s="85"/>
-      <c r="T10" s="85"/>
-      <c r="U10" s="85"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B11" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="M11" s="80" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="O11" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="P11" s="80" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="80" t="s">
-        <v>19</v>
-      </c>
-      <c r="R11" s="80" t="s">
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" t="s">
+        <v>126</v>
+      </c>
+      <c r="J19">
+        <v>0.24</v>
+      </c>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" t="s">
+        <v>136</v>
+      </c>
+      <c r="J20">
+        <v>2006</v>
+      </c>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" t="s">
+        <v>137</v>
+      </c>
+      <c r="J21">
         <v>20</v>
       </c>
-      <c r="S11" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="T11" s="80" t="s">
-        <v>22</v>
-      </c>
-      <c r="U11" s="80" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="K12" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="M12" s="82" t="s">
-        <v>81</v>
-      </c>
-      <c r="N12" s="82" t="s">
-        <v>63</v>
-      </c>
-      <c r="O12" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="P12" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q12" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="R12" s="82" t="s">
-        <v>31</v>
-      </c>
-      <c r="S12" s="82" t="s">
-        <v>82</v>
-      </c>
-      <c r="T12" s="82" t="s">
-        <v>83</v>
-      </c>
-      <c r="U12" s="82" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="I13" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="J13" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="K13" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="M13" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="N13" s="83"/>
-      <c r="O13" s="83" t="s">
-        <v>110</v>
-      </c>
-      <c r="P13" s="86" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q13" s="83" t="s">
-        <v>52</v>
-      </c>
-      <c r="R13" s="83" t="s">
-        <v>108</v>
-      </c>
-      <c r="S13" s="83"/>
-      <c r="T13" s="83"/>
-      <c r="U13" s="83"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B14" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" s="35">
-        <v>2006</v>
-      </c>
-      <c r="F14" s="36">
-        <v>1.2</v>
-      </c>
-      <c r="G14" s="36">
-        <v>0.95</v>
-      </c>
-      <c r="H14" s="34">
-        <v>12</v>
-      </c>
-      <c r="I14" s="36">
-        <v>0.24</v>
-      </c>
-      <c r="J14" s="34">
-        <v>20</v>
-      </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B15" s="34"/>
-      <c r="D15" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="70">
-        <f>56.1/F14</f>
-        <v>46.75</v>
-      </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-    </row>
-    <row r="17" spans="9:21" x14ac:dyDescent="0.2">
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-    </row>
-    <row r="18" spans="9:21" x14ac:dyDescent="0.2">
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-    </row>
-    <row r="19" spans="9:21" x14ac:dyDescent="0.2">
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-    </row>
-    <row r="20" spans="9:21" x14ac:dyDescent="0.2">
-      <c r="I20" s="40"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-    </row>
-    <row r="21" spans="9:21" x14ac:dyDescent="0.2">
-      <c r="I21" s="40"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-    </row>
-    <row r="22" spans="9:21" x14ac:dyDescent="0.2">
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-    </row>
-    <row r="23" spans="9:21" x14ac:dyDescent="0.2">
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-    </row>
-    <row r="26" spans="9:21" x14ac:dyDescent="0.2">
-      <c r="K26" s="2"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="9:21" x14ac:dyDescent="0.2">
-      <c r="K27" s="2"/>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="9:21" x14ac:dyDescent="0.2">
-      <c r="K28" s="2"/>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.35">
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="9:21" x14ac:dyDescent="0.2">
-      <c r="K29" s="2"/>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.35">
       <c r="L29" s="2"/>
     </row>
   </sheetData>
@@ -4197,636 +4285,1074 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:V16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:V61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.06640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.73046875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2" style="53" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="78.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2" style="32" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.3984375" customWidth="1"/>
+    <col min="15" max="15" width="7.1328125" customWidth="1"/>
+    <col min="16" max="16" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="78.1328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.73046875" customWidth="1"/>
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.28515625" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" customWidth="1"/>
-    <col min="22" max="22" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.265625" customWidth="1"/>
+    <col min="21" max="21" width="12.73046875" customWidth="1"/>
+    <col min="22" max="22" width="7.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="48" t="s">
+    <row r="1" spans="1:22" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B1" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="35"/>
+      <c r="I1" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B2" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="48"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+    </row>
+    <row r="3" spans="1:22" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="N3" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="V3" s="50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="5" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="T4" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="U4" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="V4" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+    </row>
+    <row r="8" spans="1:22" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="M8"/>
+      <c r="N8" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="48"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
+    </row>
+    <row r="9" spans="1:22" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="M9" s="17"/>
+      <c r="N9" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="S9" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="T9" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="U9" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="V9" s="50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M10" s="34"/>
+      <c r="N10" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="O10" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="R10" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="S10" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="T10" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="U10" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="V10" s="52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="M11" s="34"/>
+      <c r="N11" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q11" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="R11" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="S11" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="T11" s="53"/>
+      <c r="U11" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="V11" s="53"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="I12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q12" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="R12" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="S12" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="T12" s="53"/>
+      <c r="U12" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="V12" s="53"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" t="s">
+        <v>123</v>
+      </c>
+      <c r="I13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13">
+        <v>2005</v>
+      </c>
+      <c r="M13"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q13" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="R13" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="S13" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="T13" s="53"/>
+      <c r="U13" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="V13" s="53"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" t="str">
+        <f>"TRA"&amp;RIGHT(B14,3)</f>
+        <v>TRADSL</v>
+      </c>
+      <c r="F14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I14" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14">
+        <v>0.41</v>
+      </c>
+      <c r="M14"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="56"/>
-      <c r="I1" s="48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="2:22" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="Q14" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="R14" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="S14" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="T14" s="53"/>
+      <c r="U14" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="V14" s="53"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15">
+        <v>16.5</v>
+      </c>
+      <c r="M15"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q15" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="R15" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="S15" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="T15" s="53"/>
+      <c r="U15" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="V15" s="53"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16" t="s">
+        <v>126</v>
+      </c>
+      <c r="J16">
+        <v>16</v>
+      </c>
+      <c r="M16"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" t="s">
+        <v>134</v>
+      </c>
+      <c r="H17" t="s">
+        <v>126</v>
+      </c>
+      <c r="J17">
+        <v>0.16</v>
+      </c>
+      <c r="M17"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" t="s">
+        <v>136</v>
+      </c>
+      <c r="J18">
+        <v>2006</v>
+      </c>
+      <c r="M18"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" t="s">
+        <v>137</v>
+      </c>
+      <c r="J19">
+        <v>15</v>
+      </c>
+      <c r="M19"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" t="s">
+        <v>108</v>
+      </c>
+      <c r="J20">
+        <v>1.25</v>
+      </c>
+      <c r="M20"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" t="s">
+        <v>138</v>
+      </c>
+      <c r="J21">
+        <v>1E-3</v>
+      </c>
+      <c r="M21"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" t="str">
+        <f>"TRA"&amp;RIGHT(B22,3)</f>
+        <v>TRAELC</v>
+      </c>
+      <c r="F22" t="s">
+        <v>109</v>
+      </c>
+      <c r="I22" t="s">
+        <v>129</v>
+      </c>
+      <c r="J22">
+        <v>1.2</v>
+      </c>
+      <c r="M22"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" t="s">
+        <v>132</v>
+      </c>
+      <c r="J23">
+        <v>11.5</v>
+      </c>
+      <c r="M23"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24" t="s">
+        <v>126</v>
+      </c>
+      <c r="J24">
+        <v>25</v>
+      </c>
+      <c r="M24"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" t="s">
+        <v>134</v>
+      </c>
+      <c r="H25" t="s">
+        <v>126</v>
+      </c>
+      <c r="J25">
+        <v>0.25</v>
+      </c>
+      <c r="M25"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" t="s">
+        <v>136</v>
+      </c>
+      <c r="J26">
+        <v>2006</v>
+      </c>
+      <c r="M26"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" t="s">
+        <v>137</v>
+      </c>
+      <c r="J27">
+        <v>15</v>
+      </c>
+      <c r="M27"/>
+      <c r="N27" s="32"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" t="s">
+        <v>108</v>
+      </c>
+      <c r="J28">
+        <v>1.25</v>
+      </c>
+      <c r="M28"/>
+      <c r="N28" s="32"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" t="s">
+        <v>138</v>
+      </c>
+      <c r="J29">
+        <v>1E-3</v>
+      </c>
+      <c r="M29"/>
+      <c r="N29" s="32"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" t="str">
+        <f>"TRA"&amp;RIGHT(B30,3)</f>
+        <v>TRAGAS</v>
+      </c>
+      <c r="F30" t="s">
+        <v>109</v>
+      </c>
+      <c r="I30" t="s">
+        <v>129</v>
+      </c>
+      <c r="J30">
+        <v>0.38</v>
+      </c>
+      <c r="M30"/>
+      <c r="N30" s="32"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" t="s">
+        <v>131</v>
+      </c>
+      <c r="G31" t="s">
+        <v>132</v>
+      </c>
+      <c r="J31">
+        <v>14</v>
+      </c>
+      <c r="M31"/>
+      <c r="N31" s="32"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" t="s">
+        <v>133</v>
+      </c>
+      <c r="H32" t="s">
+        <v>126</v>
+      </c>
+      <c r="J32">
+        <v>18</v>
+      </c>
+      <c r="M32"/>
+      <c r="N32" s="32"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" t="s">
+        <v>134</v>
+      </c>
+      <c r="H33" t="s">
+        <v>126</v>
+      </c>
+      <c r="J33">
+        <v>0.16</v>
+      </c>
+      <c r="M33"/>
+      <c r="N33" s="32"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" t="s">
+        <v>136</v>
+      </c>
+      <c r="J34">
+        <v>2006</v>
+      </c>
+      <c r="M34"/>
+      <c r="N34" s="32"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" t="s">
+        <v>137</v>
+      </c>
+      <c r="J35">
+        <v>15</v>
+      </c>
+      <c r="M35"/>
+      <c r="N35" s="32"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" t="s">
+        <v>108</v>
+      </c>
+      <c r="J36">
+        <v>1.25</v>
+      </c>
+      <c r="M36"/>
+      <c r="N36" s="32"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" t="s">
+        <v>138</v>
+      </c>
+      <c r="J37">
+        <v>1E-3</v>
+      </c>
+      <c r="M37"/>
+      <c r="N37" s="32"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="N2" s="78" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="78"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-    </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="N3" s="80" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="P3" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="80" t="s">
-        <v>9</v>
-      </c>
-      <c r="R3" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="S3" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="T3" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="U3" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="V3" s="80" t="s">
+      <c r="C38" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" t="str">
+        <f>"TRA"&amp;RIGHT(B38,3)</f>
+        <v>TRAGSL</v>
+      </c>
+      <c r="F38" t="s">
+        <v>109</v>
+      </c>
+      <c r="I38" t="s">
+        <v>129</v>
+      </c>
+      <c r="J38">
+        <v>0.4</v>
+      </c>
+      <c r="M38"/>
+      <c r="N38" s="32"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G39" t="s">
+        <v>132</v>
+      </c>
+      <c r="J39">
+        <v>11.5</v>
+      </c>
+      <c r="M39"/>
+      <c r="N39" s="32"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" t="s">
+        <v>133</v>
+      </c>
+      <c r="H40" t="s">
+        <v>126</v>
+      </c>
+      <c r="J40">
+        <v>15.5</v>
+      </c>
+      <c r="M40"/>
+      <c r="N40" s="32"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" t="s">
+        <v>134</v>
+      </c>
+      <c r="H41" t="s">
+        <v>126</v>
+      </c>
+      <c r="J41">
+        <v>0.15</v>
+      </c>
+      <c r="M41"/>
+      <c r="N41" s="32"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" t="s">
+        <v>136</v>
+      </c>
+      <c r="J42">
+        <v>2006</v>
+      </c>
+      <c r="M42"/>
+      <c r="N42" s="32"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" t="s">
+        <v>137</v>
+      </c>
+      <c r="J43">
+        <v>15</v>
+      </c>
+      <c r="M43"/>
+      <c r="N43" s="32"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" t="s">
+        <v>108</v>
+      </c>
+      <c r="J44">
+        <v>1.25</v>
+      </c>
+      <c r="M44"/>
+      <c r="N44" s="32"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" t="s">
+        <v>138</v>
+      </c>
+      <c r="J45">
+        <v>1E-3</v>
+      </c>
+      <c r="M45"/>
+      <c r="N45" s="32"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" t="s">
+        <v>128</v>
+      </c>
+      <c r="E46" t="str">
+        <f>"TRA"&amp;RIGHT(B46,3)</f>
+        <v>TRALPG</v>
+      </c>
+      <c r="F46" t="s">
+        <v>109</v>
+      </c>
+      <c r="I46" t="s">
+        <v>129</v>
+      </c>
+      <c r="J46">
+        <v>0.38</v>
+      </c>
+      <c r="M46"/>
+      <c r="N46" s="32"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" t="s">
+        <v>131</v>
+      </c>
+      <c r="G47" t="s">
+        <v>132</v>
+      </c>
+      <c r="J47">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="2:22" s="7" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="82" t="s">
-        <v>62</v>
-      </c>
-      <c r="O4" s="82" t="s">
-        <v>63</v>
-      </c>
-      <c r="P4" s="82" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="82" t="s">
-        <v>25</v>
-      </c>
-      <c r="R4" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="S4" s="82" t="s">
-        <v>64</v>
-      </c>
-      <c r="T4" s="82" t="s">
-        <v>65</v>
-      </c>
-      <c r="U4" s="82" t="s">
-        <v>26</v>
-      </c>
-      <c r="V4" s="82" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="2:22" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-    </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="D8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="40"/>
-      <c r="M8"/>
-      <c r="N8" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="O8" s="78"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="85"/>
-      <c r="R8" s="85"/>
-      <c r="S8" s="85"/>
-      <c r="T8" s="85"/>
-      <c r="U8" s="85"/>
-      <c r="V8" s="85"/>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B9" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="M47"/>
+      <c r="N47" s="32"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" t="s">
+        <v>133</v>
+      </c>
+      <c r="H48" t="s">
+        <v>126</v>
+      </c>
+      <c r="J48">
+        <v>15.5</v>
+      </c>
+      <c r="M48"/>
+      <c r="N48" s="32"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" t="s">
+        <v>134</v>
+      </c>
+      <c r="H49" t="s">
+        <v>126</v>
+      </c>
+      <c r="J49">
+        <v>0.16</v>
+      </c>
+      <c r="M49"/>
+      <c r="N49" s="32"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" t="s">
+        <v>136</v>
+      </c>
+      <c r="J50">
+        <v>2006</v>
+      </c>
+      <c r="M50"/>
+      <c r="N50" s="32"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" t="s">
+        <v>137</v>
+      </c>
+      <c r="J51">
         <v>15</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="80" t="s">
-        <v>16</v>
-      </c>
-      <c r="O9" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="P9" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="80" t="s">
-        <v>2</v>
-      </c>
-      <c r="R9" s="80" t="s">
-        <v>19</v>
-      </c>
-      <c r="S9" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="T9" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="U9" s="80" t="s">
-        <v>22</v>
-      </c>
-      <c r="V9" s="80" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="2:22" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="I10" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="J10" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="44"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="82" t="s">
-        <v>81</v>
-      </c>
-      <c r="O10" s="82" t="s">
-        <v>63</v>
-      </c>
-      <c r="P10" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q10" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="R10" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="S10" s="82" t="s">
-        <v>31</v>
-      </c>
-      <c r="T10" s="82" t="s">
-        <v>82</v>
-      </c>
-      <c r="U10" s="82" t="s">
-        <v>83</v>
-      </c>
-      <c r="V10" s="82" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="G11" s="71" t="s">
-        <v>130</v>
-      </c>
-      <c r="H11" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="I11" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="J11" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="K11" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="L11" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="M11" s="55"/>
-      <c r="N11" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="O11" s="83"/>
-      <c r="P11" s="83" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q11" s="86" t="s">
-        <v>135</v>
-      </c>
-      <c r="R11" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="S11" s="84" t="s">
-        <v>115</v>
-      </c>
-      <c r="T11" s="83"/>
-      <c r="U11" s="84" t="s">
-        <v>136</v>
-      </c>
-      <c r="V11" s="83"/>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="M51"/>
+      <c r="N51" s="32"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52" t="s">
+        <v>108</v>
+      </c>
+      <c r="J52">
+        <v>1.25</v>
+      </c>
+      <c r="M52"/>
+      <c r="N52" s="32"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" t="s">
         <v>138</v>
       </c>
-      <c r="E12">
-        <v>2006</v>
-      </c>
-      <c r="F12" s="72">
-        <v>0.41</v>
-      </c>
-      <c r="G12" s="73">
-        <v>16.5</v>
-      </c>
-      <c r="H12" s="72">
-        <v>1.25</v>
-      </c>
-      <c r="I12" s="74">
-        <v>16</v>
-      </c>
-      <c r="J12" s="72">
-        <v>0.16</v>
-      </c>
-      <c r="K12">
-        <v>15</v>
-      </c>
-      <c r="L12" s="75">
+      <c r="J53">
         <v>1E-3</v>
       </c>
-      <c r="M12"/>
-      <c r="N12" s="83"/>
-      <c r="O12" s="83"/>
-      <c r="P12" s="83" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q12" s="86" t="s">
-        <v>140</v>
-      </c>
-      <c r="R12" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="S12" s="84" t="s">
-        <v>115</v>
-      </c>
-      <c r="T12" s="83"/>
-      <c r="U12" s="84" t="s">
-        <v>136</v>
-      </c>
-      <c r="V12" s="83"/>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" t="s">
-        <v>141</v>
-      </c>
-      <c r="D13" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13">
-        <v>2006</v>
-      </c>
-      <c r="F13" s="72">
-        <v>0.38</v>
-      </c>
-      <c r="G13" s="73">
-        <v>14</v>
-      </c>
-      <c r="H13" s="72">
-        <v>1.25</v>
-      </c>
-      <c r="I13" s="74">
-        <v>15.5</v>
-      </c>
-      <c r="J13" s="76">
-        <v>0.16</v>
-      </c>
-      <c r="K13">
-        <v>15</v>
-      </c>
-      <c r="L13" s="75">
-        <v>1E-3</v>
-      </c>
-      <c r="M13"/>
-      <c r="N13" s="83"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="83" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q13" s="86" t="s">
-        <v>143</v>
-      </c>
-      <c r="R13" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="S13" s="84" t="s">
-        <v>115</v>
-      </c>
-      <c r="T13" s="83"/>
-      <c r="U13" s="84" t="s">
-        <v>136</v>
-      </c>
-      <c r="V13" s="83"/>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D14" t="s">
-        <v>138</v>
-      </c>
-      <c r="E14">
-        <v>2006</v>
-      </c>
-      <c r="F14" s="77">
-        <v>0.4</v>
-      </c>
-      <c r="G14" s="35">
-        <v>11.5</v>
-      </c>
-      <c r="H14" s="72">
-        <v>1.25</v>
-      </c>
-      <c r="I14" s="74">
-        <v>15.5</v>
-      </c>
-      <c r="J14" s="72">
-        <v>0.15</v>
-      </c>
-      <c r="K14">
-        <v>15</v>
-      </c>
-      <c r="L14" s="75">
-        <v>1E-3</v>
-      </c>
-      <c r="M14"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q14" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="R14" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="S14" s="84" t="s">
-        <v>115</v>
-      </c>
-      <c r="T14" s="83"/>
-      <c r="U14" s="84" t="s">
-        <v>136</v>
-      </c>
-      <c r="V14" s="83"/>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15">
-        <v>2006</v>
-      </c>
-      <c r="F15">
-        <v>0.38</v>
-      </c>
-      <c r="G15">
-        <v>14</v>
-      </c>
-      <c r="H15" s="72">
-        <v>1.25</v>
-      </c>
-      <c r="I15" s="74">
-        <v>18</v>
-      </c>
-      <c r="J15" s="72">
-        <v>0.16</v>
-      </c>
-      <c r="K15">
-        <v>15</v>
-      </c>
-      <c r="L15" s="75">
-        <v>1E-3</v>
-      </c>
-      <c r="M15"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="84" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q15" s="87" t="s">
-        <v>149</v>
-      </c>
-      <c r="R15" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="S15" s="84" t="s">
-        <v>115</v>
-      </c>
-      <c r="T15" s="83"/>
-      <c r="U15" s="84" t="s">
-        <v>136</v>
-      </c>
-      <c r="V15" s="83"/>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E16">
-        <v>2006</v>
-      </c>
-      <c r="F16" s="72">
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="G16" s="73">
-        <v>11.5</v>
-      </c>
-      <c r="H16" s="72">
-        <v>1.25</v>
-      </c>
-      <c r="I16" s="74">
-        <v>25</v>
-      </c>
-      <c r="J16" s="72">
-        <v>0.25</v>
-      </c>
-      <c r="K16">
-        <v>15</v>
-      </c>
-      <c r="L16" s="75">
-        <v>1E-3</v>
-      </c>
-      <c r="M16"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
+      <c r="M53"/>
+      <c r="N53" s="32"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M54"/>
+      <c r="N54" s="32"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M55"/>
+      <c r="N55" s="32"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M56"/>
+      <c r="N56" s="32"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M57"/>
+      <c r="N57" s="32"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M58"/>
+      <c r="N58" s="32"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M59"/>
+      <c r="N59" s="32"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M60"/>
+      <c r="N60" s="32"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M61"/>
+      <c r="N61" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4836,416 +5362,416 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="47.7109375" style="24" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" style="24"/>
-    <col min="16" max="16" width="7.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.85546875" style="24"/>
+    <col min="1" max="1" width="2" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.265625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.59765625" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.73046875" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.86328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="47.73046875" style="14" customWidth="1"/>
+    <col min="14" max="14" width="8.3984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.86328125" style="14"/>
+    <col min="16" max="16" width="7.265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.59765625" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.59765625" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.86328125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="G1" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="H1" s="48" t="s">
+    <row r="1" spans="2:18" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B1" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="2:18" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="29" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="88" t="s">
+      <c r="H2" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="58"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+    </row>
+    <row r="3" spans="2:18" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="J3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="88"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="J3" s="90" t="s">
+      <c r="K3" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="91" t="s">
+      <c r="N3" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="90" t="s">
+      <c r="K4" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="90" t="s">
-        <v>11</v>
-      </c>
-      <c r="P3" s="90" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="90" t="s">
-        <v>13</v>
-      </c>
-      <c r="R3" s="90" t="s">
+      <c r="O4" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="L5" s="37"/>
+      <c r="M5" s="38"/>
+    </row>
+    <row r="6" spans="2:18" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="D6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="J6" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="58"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+    </row>
+    <row r="7" spans="2:18" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="2:18" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="82" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" s="82" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" s="82" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="82" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="82" t="s">
-        <v>64</v>
-      </c>
-      <c r="P4" s="82" t="s">
+      <c r="F7" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="Q4" s="82" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" s="82" t="s">
+      <c r="J7" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="60" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="41.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="52" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L5" s="58"/>
-      <c r="M5" s="59"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="J6" s="88" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="88"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="92"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="J7" s="90" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="91" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="M7" s="90" t="s">
-        <v>2</v>
-      </c>
-      <c r="N7" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7" s="90" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q7" s="90" t="s">
-        <v>22</v>
-      </c>
-      <c r="R7" s="90" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="G8" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="J8" s="82" t="s">
-        <v>81</v>
-      </c>
-      <c r="K8" s="82" t="s">
-        <v>63</v>
-      </c>
-      <c r="L8" s="82" t="s">
+      <c r="M8" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="82" t="s">
+      <c r="N8" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="N8" s="82" t="s">
+      <c r="O8" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="O8" s="82" t="s">
+      <c r="P8" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q8" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="R8" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="P8" s="82" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q8" s="82" t="s">
-        <v>83</v>
-      </c>
-      <c r="R8" s="82" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="61" t="str">
+    </row>
+    <row r="9" spans="2:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="40" t="str">
         <f>G2&amp;"/"&amp;$F$2</f>
         <v>M€/PJ</v>
       </c>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="J9" s="82" t="s">
-        <v>121</v>
-      </c>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="82"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="F10" s="29"/>
-      <c r="G10" s="62"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="26"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="26"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="G12" s="30"/>
-      <c r="H12" s="26"/>
-      <c r="J12" s="57"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="G13" s="30"/>
-      <c r="H13" s="26"/>
-      <c r="J13" s="57"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="G14" s="30"/>
-      <c r="H14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C15" s="26"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="26"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="25"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C16" s="26"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C17" s="26"/>
-      <c r="J17" s="25"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C18" s="26"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C19" s="26"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C20" s="26"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C21" s="26"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="26"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="26"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="F10" s="18"/>
+      <c r="G10" s="41"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B11" s="16"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="16"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="G12" s="19"/>
+      <c r="H12" s="16"/>
+      <c r="J12" s="36"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="G13" s="19"/>
+      <c r="H13" s="16"/>
+      <c r="J13" s="36"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="G14" s="19"/>
+      <c r="H14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="C15" s="16"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="16"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="15"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="C16" s="16"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="C17" s="16"/>
+      <c r="J17" s="15"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="C18" s="16"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="C19" s="16"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="C20" s="16"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="C21" s="16"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B28" s="16"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B29" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
